--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt2-Fzd4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt2-Fzd4.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H2">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>28.9281581961482</v>
+        <v>29.22839533333334</v>
       </c>
       <c r="N2">
-        <v>28.9281581961482</v>
+        <v>87.685186</v>
       </c>
       <c r="O2">
-        <v>0.4526276018723345</v>
+        <v>0.4452121315669252</v>
       </c>
       <c r="P2">
-        <v>0.4526276018723345</v>
+        <v>0.4988525987881078</v>
       </c>
       <c r="Q2">
-        <v>10.75005431961362</v>
+        <v>11.35234771866045</v>
       </c>
       <c r="R2">
-        <v>10.75005431961362</v>
+        <v>102.171129467944</v>
       </c>
       <c r="S2">
-        <v>0.4526276018723345</v>
+        <v>0.4452121315669252</v>
       </c>
       <c r="T2">
-        <v>0.4526276018723345</v>
+        <v>0.4988525987881078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H3">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.4396887939057</v>
+        <v>15.24435933333334</v>
       </c>
       <c r="N3">
-        <v>14.4396887939057</v>
+        <v>45.73307800000001</v>
       </c>
       <c r="O3">
-        <v>0.2259321753653367</v>
+        <v>0.232204800700274</v>
       </c>
       <c r="P3">
-        <v>0.2259321753653367</v>
+        <v>0.2601815181287206</v>
       </c>
       <c r="Q3">
-        <v>5.365963427062253</v>
+        <v>5.920929490879113</v>
       </c>
       <c r="R3">
-        <v>5.365963427062253</v>
+        <v>53.28836541791201</v>
       </c>
       <c r="S3">
-        <v>0.2259321753653367</v>
+        <v>0.232204800700274</v>
       </c>
       <c r="T3">
-        <v>0.2259321753653367</v>
+        <v>0.2601815181287206</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.371612124308868</v>
+        <v>0.3884013333333334</v>
       </c>
       <c r="H4">
-        <v>0.371612124308868</v>
+        <v>1.165204</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.5437617507394</v>
+        <v>21.177737</v>
       </c>
       <c r="N4">
-        <v>20.5437617507394</v>
+        <v>42.355474</v>
       </c>
       <c r="O4">
-        <v>0.3214402227623288</v>
+        <v>0.3225830677328006</v>
       </c>
       <c r="P4">
-        <v>0.3214402227623288</v>
+        <v>0.2409658830831714</v>
       </c>
       <c r="Q4">
-        <v>7.634310945487537</v>
+        <v>8.225461287782668</v>
       </c>
       <c r="R4">
-        <v>7.634310945487537</v>
+        <v>49.35276772669601</v>
       </c>
       <c r="S4">
-        <v>0.3214402227623288</v>
+        <v>0.3225830677328006</v>
       </c>
       <c r="T4">
-        <v>0.3214402227623288</v>
+        <v>0.2409658830831714</v>
       </c>
     </row>
   </sheetData>
